--- a/DreamDigger.xlsx
+++ b/DreamDigger.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD0891E-640E-41A4-9283-90F46222884B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900DF859-6440-41AE-B03B-3FA204B4792B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,23 @@
 更新Gate的设计
 文档更新
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Githun给我弄懵了，之前的Project的场景打不开了
+我好烦啊，那个分支还有新作的加血功能
+花了一个小时重做的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加血的函数有延迟？
+是从PlayerInstance的GetKeyDown开始  执行GameUIManager的Heal（）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加血的函数有延迟？
+是从PlayerInstance的GetKeyDown开始  执行GameUIManager的Heal（）
+不知道为什么最开始按下按钮毫无反应</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -52,7 +69,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +111,20 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
@@ -120,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -140,6 +171,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -487,9 +524,15 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:3" ht="178.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
         <v>43474</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">

--- a/DreamDigger.xlsx
+++ b/DreamDigger.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900DF859-6440-41AE-B03B-3FA204B4792B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96CE0DD-8880-45B6-B754-72C1380AB9A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,13 +52,16 @@
   </si>
   <si>
     <t>加血的函数有延迟？
-是从PlayerInstance的GetKeyDown开始  执行GameUIManager的Heal（）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加血的函数有延迟？
 是从PlayerInstance的GetKeyDown开始  执行GameUIManager的Heal（）
 不知道为什么最开始按下按钮毫无反应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现了存档的存和读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存档的加密目前还是缺省的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -177,6 +180,12 @@
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,7 +470,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -532,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -540,9 +549,15 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43476</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">

--- a/DreamDigger.xlsx
+++ b/DreamDigger.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96CE0DD-8880-45B6-B754-72C1380AB9A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7864FE-A288-4A29-B048-0F3B5CA46F40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,16 @@
   </si>
   <si>
     <t>存档的加密目前还是缺省的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化了存档的数据和流程
+存和读都完成了，并且实现了数据在不同场景之间的传递，使用单例模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前血量以及后续设计的变量还没有添加，不过都方法都应该差不多了，就看这个变量是不是要声明在Archive
+还是Player里面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -72,7 +82,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +141,15 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -154,38 +173,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -492,181 +519,197 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="10">
         <v>43458</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="11">
         <v>43468</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="9">
         <v>43469</v>
       </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="9">
         <v>43470</v>
       </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="9">
         <v>43471</v>
       </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="9">
         <v>43472</v>
       </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="9">
         <v>43473</v>
       </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" ht="178.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="A9" s="12">
         <v>43474</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="9">
         <v>43475</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="9">
         <v>43476</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="9">
         <v>43477</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:3" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <v>43478</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <v>43479</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="9">
         <v>43480</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16" s="9">
         <v>43481</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="A17" s="9">
         <v>43482</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="9">
         <v>43483</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="9">
         <v>43484</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="9">
         <v>43485</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="9">
         <v>43486</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="9">
         <v>43487</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="9">
         <v>43488</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24" s="9">
         <v>43489</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="9">
         <v>43490</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="A26" s="9">
         <v>43491</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="A27" s="9">
         <v>43492</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="A28" s="9">
         <v>43493</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="A29" s="9">
         <v>43494</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="A30" s="9">
         <v>43495</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="A31" s="9">
         <v>43496</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="A32" s="9">
         <v>43497</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="A33" s="9">
         <v>43498</v>
       </c>
     </row>

--- a/DreamDigger.xlsx
+++ b/DreamDigger.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7864FE-A288-4A29-B048-0F3B5CA46F40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449A93E8-31FC-49C0-80E6-D07BC9835BC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,14 @@
   <si>
     <t>当前血量以及后续设计的变量还没有添加，不过都方法都应该差不多了，就看这个变量是不是要声明在Archive
 还是Player里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gate之后的结果——电池功能制作完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还差黑洞和祭坛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -213,6 +221,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -617,6 +628,12 @@
       <c r="A14" s="9">
         <v>43479</v>
       </c>
+      <c r="B14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="9">

--- a/DreamDigger.xlsx
+++ b/DreamDigger.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449A93E8-31FC-49C0-80E6-D07BC9835BC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEBBEE4-A422-45FE-8E80-C52CCB0C39B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>还差黑洞和祭坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成指针选择物品的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我开始觉得操作有点繁琐了
+要怎么才能合适的告诉玩家操作方式呢？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -181,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,6 +233,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -640,9 +652,15 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>43481</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">

--- a/DreamDigger.xlsx
+++ b/DreamDigger.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEBBEE4-A422-45FE-8E80-C52CCB0C39B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB66C0C6-A6E1-45B4-94A2-DDA9793595C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,12 +83,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成指针选择物品的功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我开始觉得操作有点繁琐了
 要怎么才能合适的告诉玩家操作方式呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成指针选择物品的功能
+晚上回家写了建造物的数据读取
+本质上和我之前写过的成就读取差不多
+读取完成之后生成一个list单例提供程序辨认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +523,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -656,11 +659,11 @@
       <c r="A16" s="9">
         <v>43481</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">

--- a/DreamDigger.xlsx
+++ b/DreamDigger.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB66C0C6-A6E1-45B4-94A2-DDA9793595C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6DA818-24B6-478A-94D6-E7A21FC4FD03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,17 @@
 晚上回家写了建造物的数据读取
 本质上和我之前写过的成就读取差不多
 读取完成之后生成一个list单例提供程序辨认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化了建造物的类，添加了标记和所属
+存档类开始修改
+Player类急需修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player类需要的变量比我想象的要多
+还有建造物的类需不需要和存档结合在一起？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,7 +534,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -666,82 +677,88 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>43482</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>43483</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>43484</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>43485</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>43486</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>43487</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>43488</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>43489</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>43490</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>43491</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>43492</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>43493</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>43494</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>43495</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>43496</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>43497</v>
       </c>

--- a/DreamDigger.xlsx
+++ b/DreamDigger.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6DA818-24B6-478A-94D6-E7A21FC4FD03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F95D8C-40AB-4526-834F-9811D5DEBD3F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,14 @@
   <si>
     <t>Player类需要的变量比我想象的要多
 还有建造物的类需不需要和存档结合在一起？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存档类的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,7 +542,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C16" activeCellId="1" sqref="C17 C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -688,9 +696,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>43483</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">

--- a/DreamDigger.xlsx
+++ b/DreamDigger.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F95D8C-40AB-4526-834F-9811D5DEBD3F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D25D6BE-76BA-4C9B-A2A3-56048E7E9527}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,24 @@
   </si>
   <si>
     <t>头大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新存档类
+之前存档的流程有些问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在的流程是  创建按钮 -- 读取archive -- 读取blueprint
+新建是从按钮开始调取  创建新文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存档类的读取OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建新的存档的时候，会先从Item的标准模板复制一份文件，重命名作为新存档的item list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" activeCellId="1" sqref="C17 C16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -717,14 +735,26 @@
         <v>43485</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>43486</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>43487</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">

--- a/DreamDigger.xlsx
+++ b/DreamDigger.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D25D6BE-76BA-4C9B-A2A3-56048E7E9527}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26776BD6-E279-4839-8C21-2753D3292E10}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,11 +124,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>存档类的读取OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建新的存档的时候，会先从Item的标准模板复制一份文件，重命名作为新存档的item list</t>
+    <t>存档类的读取OK
+存档测试OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建新的存档的时候，会先从Item的标准模板复制一份文件，重命名作为新存档的item list
+测试成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加游戏前的准备画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item和武器系统的设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,7 +570,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -750,10 +760,10 @@
       <c r="A22" s="9">
         <v>43487</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -762,9 +772,15 @@
         <v>43488</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>43489</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">

--- a/DreamDigger.xlsx
+++ b/DreamDigger.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26776BD6-E279-4839-8C21-2753D3292E10}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FC41B1-830D-42B4-95B2-40298412E31B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,11 @@
   </si>
   <si>
     <t>item和武器系统的设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备界面UI搭建
+修改读取流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -783,10 +788,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>43490</v>
       </c>
+      <c r="B25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="9">

--- a/DreamDigger.xlsx
+++ b/DreamDigger.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FC41B1-830D-42B4-95B2-40298412E31B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D028F45-7996-42DB-BCC9-3A8DD87939B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,15 @@
   <si>
     <t>准备界面UI搭建
 修改读取流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成ItemUI的背包转移功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还差显示信息
+注意数据的传递</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +584,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -802,9 +811,15 @@
         <v>43491</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>43492</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">

--- a/DreamDigger.xlsx
+++ b/DreamDigger.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D028F45-7996-42DB-BCC9-3A8DD87939B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9126D914-6E5A-41D6-A2E0-BF8E6348DB8C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,14 @@
   <si>
     <t>还差显示信息
 注意数据的传递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成Item 的信息读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要不要对转移物品进行左右键的交互？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -822,9 +830,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>43493</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">

--- a/DreamDigger.xlsx
+++ b/DreamDigger.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9126D914-6E5A-41D6-A2E0-BF8E6348DB8C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D3D87C-5875-40F3-A9FA-852BBEBBB980}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,10 @@
   </si>
   <si>
     <t>要不要对转移物品进行左右键的交互？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画添加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,7 +596,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -846,10 +850,14 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>43495</v>
       </c>
+      <c r="B30" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="9">

--- a/DreamDigger.xlsx
+++ b/DreamDigger.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D3D87C-5875-40F3-A9FA-852BBEBBB980}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8678B8-7CF8-4FB3-BCA2-8343E9BF7B7D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,35 @@
   </si>
   <si>
     <t>动画添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画完善
+资源采集动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有资源使用相同Controller
+表现相同的用一个clip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源采集结束逻辑创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把不同资源采集完毕的行为放在一个脚本里单独执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">取消昨天的逻辑，在新脚本中无法接收资源GameObject
+使用动画事件作为资源不同行为的触发，事件执行的函数正好放在ResourcesInstance上
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用相同的AnimatorController没变，但是即便是相同的表现还是需要每个资源有独立的动画片段，通过不同的
+的动画属性来触发不同的动画，从而执行不同资源的动画事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -859,19 +888,97 @@
       </c>
       <c r="C30" s="14"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
-        <v>43496</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>43509</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
-        <v>43497</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+        <v>43510</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
-        <v>43498</v>
+        <v>43511</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <v>43512</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
+        <v>43513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
+        <v>43516</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
+        <v>43519</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="9">
+        <v>43521</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="9">
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="9">
+        <v>43523</v>
       </c>
     </row>
   </sheetData>

--- a/DreamDigger.xlsx
+++ b/DreamDigger.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8678B8-7CF8-4FB3-BCA2-8343E9BF7B7D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EBB1C3-2C68-473B-98F9-2CE96CA5C9EC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +194,25 @@
   <si>
     <t>使用相同的AnimatorController没变，但是即便是相同的表现还是需要每个资源有独立的动画片段，通过不同的
 的动画属性来触发不同的动画，从而执行不同资源的动画事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量出现的效果不是很完美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源动画逻辑更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的目录-关于怪物
+虫洞生成怪物
+怪物产生跟随敌人
+敌人的行为逻辑有待优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -921,29 +940,45 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>43512</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>43513</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>43514</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+    </row>
+    <row r="37" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>43515</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="14"/>
+    </row>
+    <row r="38" spans="1:3" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>43516</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">

--- a/DreamDigger.xlsx
+++ b/DreamDigger.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EBB1C3-2C68-473B-98F9-2CE96CA5C9EC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6153F472-00D4-451B-A29E-74E0097E02FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +213,16 @@
 虫洞生成怪物
 怪物产生跟随敌人
 敌人的行为逻辑有待优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人（种类一）行为制作
+接触和攻击的设置
+Item面板的更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩什么游戏这个项目就像什么游戏，这是一个缺点嘛？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -981,9 +991,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>43517</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">

--- a/DreamDigger.xlsx
+++ b/DreamDigger.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6153F472-00D4-451B-A29E-74E0097E02FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0788705-EFC9-4DEC-8342-C096A6155CDF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,15 @@
   </si>
   <si>
     <t>玩什么游戏这个项目就像什么游戏，这是一个缺点嘛？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝图逻辑需要修改
+回溯之前的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老话说得好，步子太大，会扯到蛋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,7 +663,7 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1027,9 +1036,15 @@
         <v>43522</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>43523</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/DreamDigger.xlsx
+++ b/DreamDigger.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0788705-EFC9-4DEC-8342-C096A6155CDF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F01262-5F1D-4C4A-8615-152319AC3387}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,10 @@
   </si>
   <si>
     <t>老话说得好，步子太大，会扯到蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录存档逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -380,6 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -660,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1047,6 +1052,14 @@
         <v>44</v>
       </c>
     </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="16">
+        <v>43528</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DreamDigger.xlsx
+++ b/DreamDigger.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F01262-5F1D-4C4A-8615-152319AC3387}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7763F7BC-288F-4030-BF72-A2CB2E93AB47}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,44 @@
   </si>
   <si>
     <t>记录存档逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存档逻辑稍微修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个逻辑似乎有点乱套了
+我的初衷是存档下存放蓝图和Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并蓝图和Item
+文件上不做修改
+Class能不改就不改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI显示不同，通过代码拆分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要空一段时间了  马上成为剪辑师了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺激</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了Item的界面，添加了BluePrintClass的Type属性
+蓝图的存储文件上早就声明了·Type  用的Int  今天写了一些读String的时候发现了
+心累</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间长不写就忘了
+看来笔记还是要记录的要不然哪里做什么修改Git的Commit可不够看</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +422,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -665,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1060,6 +1100,99 @@
         <v>45</v>
       </c>
     </row>
+    <row r="47" spans="1:3" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="16">
+        <v>43529</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="16">
+        <v>43530</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="16">
+        <v>43531</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="16">
+        <v>43532</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="16">
+        <v>43533</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="16">
+        <v>43534</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="16">
+        <v>43535</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+    </row>
+    <row r="54" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="16">
+        <v>43536</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="16">
+        <v>43537</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="16">
+        <v>43538</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="16">
+        <v>43539</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DreamDigger.xlsx
+++ b/DreamDigger.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7763F7BC-288F-4030-BF72-A2CB2E93AB47}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB88575F-A856-483A-B1FF-F5C24B18E938}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,12 @@
   <si>
     <t>时间长不写就忘了
 看来笔记还是要记录的要不然哪里做什么修改Git的Commit可不够看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.ItemPanle 的Bug修复
+2.添加选择Item之后的建造行为
+3.连接资源实例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1193,6 +1199,70 @@
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
     </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="16">
+        <v>43540</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="16">
+        <v>43541</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="16">
+        <v>43542</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="16">
+        <v>43543</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="162" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="16">
+        <v>43544</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="14"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="16">
+        <v>43545</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="16">
+        <v>43546</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="16">
+        <v>43547</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="16">
+        <v>43548</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="16">
+        <v>43549</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="16">
+        <v>43550</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="16">
+        <v>43551</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
